--- a/experiment result cnn/1024_0.3_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.3_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002287313001030049</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005767879723458092</v>
+        <v>0.006230114688855049</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002237237105420646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007810625358225414</v>
+        <v>0.000380585938446943</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0004590367243337774</v>
+        <v>8.001599999871949e-05</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0050902793282848</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.004598344064860142</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002906019061002998</v>
+        <v>0.003167023318507621</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004277910855259789</v>
+        <v>0.0001200359999935161</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0032065895109484</v>
+        <v>0.0003202199997114219</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006067311920278028</v>
+        <v>0.006681230355754192</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008199722200653452</v>
+        <v>0.0003002019997839554</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008406464093860592</v>
+        <v>0.0004002279998262579</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008530380146362662</v>
+        <v>0.0006809119054823427</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01885934509559696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.007345878035973971</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003427555240658209</v>
+        <v>0.001247686613389126</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003721073375899177</v>
+        <v>0.0001400979999038255</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01329542216396062</v>
+        <v>0.0008833798860356686</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00186128085537174</v>
+        <v>0.009032079276250967</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004092863450833679</v>
+        <v>8.001999819437652e-05</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01107032683266029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01479667829016743</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001262295567397275</v>
+        <v>0.001103105732944002</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.008097591233674001</v>
+        <v>0.0005207639915509405</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07102598467563717</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00312725042591091</v>
+        <v>0.0002801519998955553</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01292065080453505</v>
+        <v>0.0003202039997261587</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005824606315898205</v>
+        <v>0.001123167915364816</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01126284379292386</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005259507847765152</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00539024816717224</v>
+        <v>0.0004007999129237186</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0009790996080571393</v>
+        <v>0.0009411019965625651</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001243248630867687</v>
+        <v>0.003370556822653038</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05865383632169002</v>
+        <v>0.02828349059021033</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006823596123636699</v>
+        <v>0.0001400579999743347</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.004613197720414382</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001040475556793975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009945226380633857</v>
+        <v>0.0008814279177693796</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0008600272074982075</v>
+        <v>0.003223406764442788</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.005343185926516079</v>
+        <v>0.0007421899522483234</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01095090623145436</v>
+        <v>0.0006621777315329753</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0003202344998956094</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001887556782558852</v>
+        <v>0.0003605199973695177</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00911358895164548</v>
+        <v>0.007259497186290112</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07417830710958451</v>
+        <v>0.0005810859887508287</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003583601057585446</v>
+        <v>0.0009622599722015675</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006377615190496437</v>
+        <v>0.01154143960963205</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002665325554837387</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002705458635374802</v>
+        <v>0.004191214825823617</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02065899835840418</v>
+        <v>0.03679450324685696</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.003716563916512801</v>
+        <v>0.07679268447811716</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01994836568655687</v>
+        <v>0.001665853825581336</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02121073470951021</v>
+        <v>0.03298663492335348</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005089444918658957</v>
+        <v>0.0002801679869826994</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001981052557148187</v>
+        <v>0.04323401493243661</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01432755755609403</v>
+        <v>0.006806898222745597</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02094633760799322</v>
+        <v>0.03389631269401637</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.004634960805044642</v>
+        <v>0.0004608099935736685</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02620362170693125</v>
+        <v>0.003738521122056067</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01071522247824355</v>
+        <v>0.09948504499029501</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02273638714704231</v>
+        <v>0.003450486652025435</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005007511192498889</v>
+        <v>0.001363203960678224</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0002985194646583369</v>
+        <v>0.007635530349319202</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01110577510852988</v>
+        <v>0.00400132893177956</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0192458861226548</v>
+        <v>0.01354727511770927</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1884170154759577</v>
+        <v>0.006912412473658515</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001604092281754919</v>
+        <v>0.1066651545705201</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07708125137701523</v>
+        <v>0.0001600439999928759</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004617538857315051</v>
+        <v>0.01863700621374877</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01520804483797337</v>
+        <v>0.1166910496377338</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07057043976100319</v>
+        <v>0.04998166188511659</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0005183005324336629</v>
+        <v>0.06727741981631027</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003818183863773575</v>
+        <v>0.0462216516177832</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0003968891776925065</v>
+        <v>0.03004257038086204</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.002345389535596721</v>
+        <v>0.03900213771464315</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01030186142588612</v>
+        <v>0.003797975060196839</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.007209493926225737</v>
+        <v>0.1099256020438947</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00108283023783918</v>
+        <v>0.02492654096364224</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002821987902093717</v>
+        <v>0.006098326992657581</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03202388094498017</v>
+        <v>0.03005723107837057</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.009230019718729726</v>
+        <v>0.003775653783769053</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02639449897404224</v>
+        <v>0.0112596723713658</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.008499398388743249</v>
+        <v>0.006807011230050321</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.005728286147171056</v>
+        <v>0.004358031906458735</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001055726462135188</v>
+        <v>0.03207900384064994</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06380064375582528</v>
+        <v>0.004005285273409046</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002569662120303615</v>
+        <v>0.09009956531632166</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.009296875243654832</v>
+        <v>0.05553290134302107</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.003894471437409715</v>
+        <v>0.003102516830779046</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.005893060072319861</v>
+        <v>0.2394244394943565</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01469020656747796</v>
+        <v>0.04882807323296916</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01580132238180975</v>
+        <v>0.0004203579993136537</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2820139893526826</v>
+        <v>0.09224726722582514</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03301414149073237</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02396368086847466</v>
+        <v>0.1078654133833374</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.009256450857782442</v>
+        <v>0.1500159272673013</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08962024205824266</v>
+        <v>0.09999964969724892</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.008264768900736104</v>
+        <v>0.009745505057336675</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.003727805359023821</v>
+        <v>0.1261024594999604</v>
       </c>
     </row>
   </sheetData>
